--- a/demo/src/main/resources/utils/exercises.xlsx
+++ b/demo/src/main/resources/utils/exercises.xlsx
@@ -136,214 +136,214 @@
     <t>Reverse a String</t>
   </si>
   <si>
-    <t>Write a Java method that counts the number of vowels in a string using functional constructs.</t>
-  </si>
-  <si>
-    <t>Return a list of squares from a given list of integers.</t>
-  </si>
-  <si>
-    <t>Write a Java method using streams to calculate the sum of all even numbers in a given list of integers.</t>
-  </si>
-  <si>
-    <t>Convert all strings in a list to uppercase using Java streams.</t>
-  </si>
-  <si>
-    <t>Implement a function that returns all unique words from a sentence using Java functional programming.</t>
-  </si>
-  <si>
-    <t>Given a list of employees with department fields, group them by department using streams.</t>
-  </si>
-  <si>
-    <t>From a list of User objects, calculate the average age.</t>
-  </si>
-  <si>
-    <t>Find the most frequently occurring word in a paragraph.</t>
-  </si>
-  <si>
-    <t>Partition a list of numbers into even and odd categories.</t>
-  </si>
-  <si>
-    <t>Filter products priced above 100 and sort them in descending order.</t>
-  </si>
-  <si>
-    <t>From a list of salaries, find the second highest using streams.</t>
-  </si>
-  <si>
-    <t>Given a list of documents, build an inverted index mapping each word to documents containing it.</t>
-  </si>
-  <si>
-    <t>Create a custom collector that joins strings with a delimiter.</t>
-  </si>
-  <si>
-    <t>Flatten a list of lists of integers into a single list using streams.</t>
-  </si>
-  <si>
-    <t>Read a file and count the frequency of each word using streams.</t>
-  </si>
-  <si>
-    <t>Calculate the sum of all elements in an integer array.</t>
-  </si>
-  <si>
-    <t>Identify and return all duplicates in an array.</t>
-  </si>
-  <si>
-    <t>Find the missing number in a consecutive integer array.</t>
-  </si>
-  <si>
-    <t>Create a method that returns the factorial of a number.</t>
-  </si>
-  <si>
-    <t>Merge two sorted arrays into one sorted array.</t>
-  </si>
-  <si>
-    <t>Check if a given string is a palindrome.</t>
-  </si>
-  <si>
-    <t>Find the maximum value in an integer array.</t>
-  </si>
-  <si>
-    <t>Generate the first N numbers in the Fibonacci sequence.</t>
-  </si>
-  <si>
-    <t>Convert a decimal number to its binary representation.</t>
-  </si>
-  <si>
-    <t>Sort a list of strings alphabetically.</t>
-  </si>
-  <si>
-    <t>Calculate the greatest common divisor of two integers.</t>
-  </si>
-  <si>
-    <t>Compute the average of a list of numbers.</t>
-  </si>
-  <si>
-    <t>Count the number of words in a given sentence.</t>
-  </si>
-  <si>
-    <t>Convert a binary number to its decimal equivalent.</t>
-  </si>
-  <si>
-    <t>Remove duplicate elements from an integer array.</t>
-  </si>
-  <si>
-    <t>Write a Java function that checks if a number is prime.</t>
-  </si>
-  <si>
-    <t>Find the least common multiple of two numbers.</t>
-  </si>
-  <si>
-    <t>Sort an integer array in ascending order.</t>
-  </si>
-  <si>
-    <t>Determine whether a number is an Armstrong number.</t>
-  </si>
-  <si>
-    <t>Write a Java method to reverse a given string.</t>
-  </si>
-  <si>
-    <t>Use `chars()`, `mapToObj()`, and `filter()`.</t>
-  </si>
-  <si>
-    <t>Use `map()` to transform the numbers.</t>
-  </si>
-  <si>
-    <t>Use `filter()` to get even numbers and `reduce()` to compute the sum.</t>
-  </si>
-  <si>
-    <t>Use `map(String::toUpperCase)`.</t>
-  </si>
-  <si>
-    <t>Use `split()`, `Arrays.stream()`, and `distinct()`.</t>
-  </si>
-  <si>
-    <t>Use `Collectors.groupingBy()`.</t>
-  </si>
-  <si>
-    <t>Use `mapToInt()` followed by `average()`.</t>
-  </si>
-  <si>
-    <t>Use `Collectors.groupingBy()` and `max()` with comparator.</t>
-  </si>
-  <si>
-    <t>Use `Collectors.partitioningBy()`.</t>
-  </si>
-  <si>
-    <t>Use `filter()` and `sorted()` with a comparator.</t>
-  </si>
-  <si>
-    <t>Use `distinct()`, `sorted()`, and `skip()`.</t>
-  </si>
-  <si>
-    <t>Use nested streams with `flatMap()` and `Collectors.toMap()`.</t>
-  </si>
-  <si>
-    <t>Use `Collector.of()` to implement a custom collector.</t>
-  </si>
-  <si>
-    <t>Use `flatMap()` with `stream()`.</t>
-  </si>
-  <si>
-    <t>Use `Files.lines()`, `flatMap()`, and `Collectors.groupingBy()`.</t>
-  </si>
-  <si>
-    <t>Use a loop to accumulate the sum.</t>
-  </si>
-  <si>
-    <t>Track seen values using a Set.</t>
-  </si>
-  <si>
-    <t>Use the sum formula for n natural numbers.</t>
-  </si>
-  <si>
-    <t>Use recursion or a loop to multiply numbers.</t>
-  </si>
-  <si>
-    <t>Use two pointers to merge.</t>
-  </si>
-  <si>
-    <t>Compare the string with its reverse.</t>
-  </si>
-  <si>
-    <t>Loop through the array and track the max value.</t>
-  </si>
-  <si>
-    <t>Start with 0 and 1, then add the last two numbers repeatedly.</t>
-  </si>
-  <si>
-    <t>Use Integer.toBinaryString().</t>
-  </si>
-  <si>
-    <t>Use Collections.sort().</t>
-  </si>
-  <si>
-    <t>Use Euclid's algorithm.</t>
-  </si>
-  <si>
-    <t>Sum the numbers and divide by the count.</t>
-  </si>
-  <si>
-    <t>Split the sentence by spaces.</t>
-  </si>
-  <si>
-    <t>Parse the binary string using Integer.parseInt().</t>
-  </si>
-  <si>
-    <t>Use a HashSet to filter duplicates.</t>
-  </si>
-  <si>
-    <t>Loop through numbers and check divisibility.</t>
-  </si>
-  <si>
-    <t>Use the formula: (a*b)/GCD(a, b).</t>
-  </si>
-  <si>
-    <t>Use Arrays.sort() method.</t>
-  </si>
-  <si>
-    <t>Check if the number equals the sum of the cubes of its digits.</t>
-  </si>
-  <si>
-    <t>Use a loop or StringBuilder's reverse() method.</t>
+    <t>Write a Java method that counts the number of vowels in a string using functional constructs. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Return a list of squares from a given list of integers. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Write a Java method using streams to calculate the sum of all even numbers in a given list of integers. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Convert all strings in a list to uppercase using Java streams. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Implement a function that returns all unique words from a sentence using Java functional programming. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Given a list of employees with department fields, group them by department using streams. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>From a list of User objects, calculate the average age. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Find the most frequently occurring word in a paragraph. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Partition a list of numbers into even and odd categories. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Filter products priced above 100 and sort them in descending order. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>From a list of salaries, find the second highest using streams. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Given a list of documents, build an inverted index mapping each word to documents containing it. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Create a custom collector that joins strings with a delimiter. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Flatten a list of lists of integers into a single list using streams. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Read a file and count the frequency of each word using streams. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Calculate the sum of all elements in an integer array. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Identify and return all duplicates in an array. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Find the missing number in a consecutive integer array. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Create a method that returns the factorial of a number. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Merge two sorted arrays into one sorted array. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Check if a given string is a palindrome. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Find the maximum value in an integer array. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Generate the first N numbers in the Fibonacci sequence. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Convert a decimal number to its binary representation. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Sort a list of strings alphabetically. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Calculate the greatest common divisor of two integers. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Compute the average of a list of numbers. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Count the number of words in a given sentence. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Convert a binary number to its decimal equivalent. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from an integer array. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Write a Java function that checks if a number is prime. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Find the least common multiple of two numbers. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Sort an integer array in ascending order. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Determine whether a number is an Armstrong number. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Write a Java method to reverse a given string. Make sure to handle any edge cases, such as empty strings or lists. Include comments in your code explaining each step.</t>
+  </si>
+  <si>
+    <t>Use `chars()`, `mapToObj()`, and `filter()`. Consider converting characters to lowercase to simplify comparison. You can use a set of vowels to check membership efficiently.</t>
+  </si>
+  <si>
+    <t>Use `map()` to transform the numbers. Remember to use list comprehensions or mapping functions for a concise solution. Ensure that the input list is not empty.</t>
+  </si>
+  <si>
+    <t>Use `filter()` to get even numbers and `reduce()` to compute the sum. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `map(String::toUpperCase)`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `split()`, `Arrays.stream()`, and `distinct()`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `Collectors.groupingBy()`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `mapToInt()` followed by `average()`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `Collectors.groupingBy()` and `max()` with comparator. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `Collectors.partitioningBy()`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `filter()` and `sorted()` with a comparator. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `distinct()`, `sorted()`, and `skip()`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use nested streams with `flatMap()` and `Collectors.toMap()`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `Collector.of()` to implement a custom collector. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `flatMap()` with `stream()`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use `Files.lines()`, `flatMap()`, and `Collectors.groupingBy()`. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use a loop to accumulate the sum. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Track seen values using a Set. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use the sum formula for n natural numbers. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use recursion or a loop to multiply numbers. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use two pointers to merge. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Compare the string with its reverse. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Loop through the array and track the max value. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Start with 0 and 1, then add the last two numbers repeatedly. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use Integer.toBinaryString(). Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use Collections.sort(). Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use Euclid's algorithm. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Sum the numbers and divide by the count. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Split the sentence by spaces. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Parse the binary string using Integer.parseInt(). Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use a HashSet to filter duplicates. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Loop through numbers and check divisibility. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use the formula: (a*b)/GCD(a, b). Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use Arrays.sort() method. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Check if the number equals the sum of the cubes of its digits. Think carefully about the data structures and functions that can simplify your solution.</t>
+  </si>
+  <si>
+    <t>Use a loop or StringBuilder's reverse() method. Think carefully about the data structures and functions that can simplify your solution.</t>
   </si>
   <si>
     <t>Beginner</t>
